--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\21.10.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04C8EFC7-1E81-4C22-A48B-CB8184D44E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C93FA-AFC1-4E8A-AFDF-192F1875E2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0B23967E-6CE9-4FBC-9360-CF88409F37EB}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B23967E-6CE9-4FBC-9360-CF88409F37EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -439,7 +439,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
